--- a/natmiOut/YoungD2/LR-pairs_lrc2p/Anxa2-Robo4.xlsx
+++ b/natmiOut/YoungD2/LR-pairs_lrc2p/Anxa2-Robo4.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -455,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T13"/>
+  <dimension ref="A1:T31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -537,52 +537,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>37.3490215442457</v>
+        <v>56.394747</v>
       </c>
       <c r="H2">
-        <v>37.3490215442457</v>
+        <v>169.184241</v>
       </c>
       <c r="I2">
-        <v>0.05102037174572878</v>
+        <v>0.06926838923950532</v>
       </c>
       <c r="J2">
-        <v>0.05102037174572878</v>
+        <v>0.0692683892395053</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>32.2587303494116</v>
+        <v>39.00350066666667</v>
       </c>
       <c r="N2">
-        <v>32.2587303494116</v>
+        <v>117.010502</v>
       </c>
       <c r="O2">
-        <v>0.9942035944346669</v>
+        <v>0.98996865118361</v>
       </c>
       <c r="P2">
-        <v>0.9942035944346669</v>
+        <v>0.9899686511836098</v>
       </c>
       <c r="Q2">
-        <v>1204.832014810187</v>
+        <v>2199.592552210998</v>
       </c>
       <c r="R2">
-        <v>1204.832014810187</v>
+        <v>19796.33296989898</v>
       </c>
       <c r="S2">
-        <v>0.05072463697899647</v>
+        <v>0.06857353386509436</v>
       </c>
       <c r="T2">
-        <v>0.05072463697899647</v>
+        <v>0.06857353386509434</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,60 +596,60 @@
         <v>27</v>
       </c>
       <c r="D3" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>37.3490215442457</v>
+        <v>56.394747</v>
       </c>
       <c r="H3">
-        <v>37.3490215442457</v>
+        <v>169.184241</v>
       </c>
       <c r="I3">
-        <v>0.05102037174572878</v>
+        <v>0.06926838923950532</v>
       </c>
       <c r="J3">
-        <v>0.05102037174572878</v>
+        <v>0.0692683892395053</v>
       </c>
       <c r="K3">
         <v>1</v>
       </c>
       <c r="L3">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M3">
-        <v>0.188074842189879</v>
+        <v>0.00545</v>
       </c>
       <c r="N3">
-        <v>0.188074842189879</v>
+        <v>0.01635</v>
       </c>
       <c r="O3">
-        <v>0.005796405565333139</v>
+        <v>0.0001383293565123925</v>
       </c>
       <c r="P3">
-        <v>0.005796405565333139</v>
+        <v>0.0001383293565123925</v>
       </c>
       <c r="Q3">
-        <v>7.024411332880401</v>
+        <v>0.30735137115</v>
       </c>
       <c r="R3">
-        <v>7.024411332880401</v>
+        <v>2.76616234035</v>
       </c>
       <c r="S3">
-        <v>0.0002957347667323079</v>
+        <v>9.581851710150707E-06</v>
       </c>
       <c r="T3">
-        <v>0.0002957347667323079</v>
+        <v>9.581851710150703E-06</v>
       </c>
     </row>
     <row r="4" spans="1:20">
       <c r="A4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B4" t="s">
         <v>26</v>
@@ -658,60 +658,60 @@
         <v>27</v>
       </c>
       <c r="D4" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>311.969302090427</v>
+        <v>56.394747</v>
       </c>
       <c r="H4">
-        <v>311.969302090427</v>
+        <v>169.184241</v>
       </c>
       <c r="I4">
-        <v>0.4261635006168299</v>
+        <v>0.06926838923950532</v>
       </c>
       <c r="J4">
-        <v>0.4261635006168299</v>
+        <v>0.0692683892395053</v>
       </c>
       <c r="K4">
         <v>1</v>
       </c>
       <c r="L4">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M4">
-        <v>32.2587303494116</v>
+        <v>0.028296</v>
       </c>
       <c r="N4">
-        <v>32.2587303494116</v>
+        <v>0.08488800000000001</v>
       </c>
       <c r="O4">
-        <v>0.9942035944346669</v>
+        <v>0.0007181958663990202</v>
       </c>
       <c r="P4">
-        <v>0.9942035944346669</v>
+        <v>0.0007181958663990201</v>
       </c>
       <c r="Q4">
-        <v>10063.73359342921</v>
+        <v>1.595745761112</v>
       </c>
       <c r="R4">
-        <v>10063.73359342921</v>
+        <v>14.361711850008</v>
       </c>
       <c r="S4">
-        <v>0.4236932841301126</v>
+        <v>4.974827082393109E-05</v>
       </c>
       <c r="T4">
-        <v>0.4236932841301126</v>
+        <v>4.974827082393107E-05</v>
       </c>
     </row>
     <row r="5" spans="1:20">
       <c r="A5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B5" t="s">
         <v>26</v>
@@ -720,60 +720,60 @@
         <v>27</v>
       </c>
       <c r="D5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>311.969302090427</v>
+        <v>56.394747</v>
       </c>
       <c r="H5">
-        <v>311.969302090427</v>
+        <v>169.184241</v>
       </c>
       <c r="I5">
-        <v>0.4261635006168299</v>
+        <v>0.06926838923950532</v>
       </c>
       <c r="J5">
-        <v>0.4261635006168299</v>
+        <v>0.0692683892395053</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L5">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M5">
-        <v>0.188074842189879</v>
+        <v>0.07360899999999999</v>
       </c>
       <c r="N5">
-        <v>0.188074842189879</v>
+        <v>0.220827</v>
       </c>
       <c r="O5">
-        <v>0.005796405565333139</v>
+        <v>0.00186830928504967</v>
       </c>
       <c r="P5">
-        <v>0.005796405565333139</v>
+        <v>0.00186830928504967</v>
       </c>
       <c r="Q5">
-        <v>58.67357725874374</v>
+        <v>4.151160931922999</v>
       </c>
       <c r="R5">
-        <v>58.67357725874374</v>
+        <v>37.360448387307</v>
       </c>
       <c r="S5">
-        <v>0.002470216486717245</v>
+        <v>0.0001294147747766025</v>
       </c>
       <c r="T5">
-        <v>0.002470216486717245</v>
+        <v>0.0001294147747766024</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B6" t="s">
         <v>26</v>
@@ -782,60 +782,60 @@
         <v>27</v>
       </c>
       <c r="D6" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>94.1553168321514</v>
+        <v>56.394747</v>
       </c>
       <c r="H6">
-        <v>94.1553168321514</v>
+        <v>169.184241</v>
       </c>
       <c r="I6">
-        <v>0.1286202172906283</v>
+        <v>0.06926838923950532</v>
       </c>
       <c r="J6">
-        <v>0.1286202172906283</v>
+        <v>0.0692683892395053</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>32.2587303494116</v>
+        <v>0.2878673333333333</v>
       </c>
       <c r="N6">
-        <v>32.2587303494116</v>
+        <v>0.863602</v>
       </c>
       <c r="O6">
-        <v>0.9942035944346669</v>
+        <v>0.007306514308429066</v>
       </c>
       <c r="P6">
-        <v>0.9942035944346669</v>
+        <v>0.007306514308429065</v>
       </c>
       <c r="Q6">
-        <v>3037.330976651787</v>
+        <v>16.234205432898</v>
       </c>
       <c r="R6">
-        <v>3037.330976651787</v>
+        <v>146.107848896082</v>
       </c>
       <c r="S6">
-        <v>0.1278746823473105</v>
+        <v>0.0005061104771002796</v>
       </c>
       <c r="T6">
-        <v>0.1278746823473105</v>
+        <v>0.0005061104771002794</v>
       </c>
     </row>
     <row r="7" spans="1:20">
       <c r="A7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B7" t="s">
         <v>26</v>
@@ -844,60 +844,60 @@
         <v>27</v>
       </c>
       <c r="D7" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>94.1553168321514</v>
+        <v>313.0342813333334</v>
       </c>
       <c r="H7">
-        <v>94.1553168321514</v>
+        <v>939.102844</v>
       </c>
       <c r="I7">
-        <v>0.1286202172906283</v>
+        <v>0.3844929110987261</v>
       </c>
       <c r="J7">
-        <v>0.1286202172906283</v>
+        <v>0.384492911098726</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>0.188074842189879</v>
+        <v>39.00350066666667</v>
       </c>
       <c r="N7">
-        <v>0.188074842189879</v>
+        <v>117.010502</v>
       </c>
       <c r="O7">
-        <v>0.005796405565333139</v>
+        <v>0.98996865118361</v>
       </c>
       <c r="P7">
-        <v>0.005796405565333139</v>
+        <v>0.9899686511836098</v>
       </c>
       <c r="Q7">
-        <v>17.70824635454493</v>
+        <v>12209.43280067419</v>
       </c>
       <c r="R7">
-        <v>17.70824635454493</v>
+        <v>109884.8952060677</v>
       </c>
       <c r="S7">
-        <v>0.0007455349433177552</v>
+        <v>0.3806359285900655</v>
       </c>
       <c r="T7">
-        <v>0.0007455349433177552</v>
+        <v>0.3806359285900654</v>
       </c>
     </row>
     <row r="8" spans="1:20">
       <c r="A8" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B8" t="s">
         <v>26</v>
@@ -906,60 +906,60 @@
         <v>27</v>
       </c>
       <c r="D8" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>68.3395663619679</v>
+        <v>313.0342813333334</v>
       </c>
       <c r="H8">
-        <v>68.3395663619679</v>
+        <v>939.102844</v>
       </c>
       <c r="I8">
-        <v>0.09335479047554045</v>
+        <v>0.3844929110987261</v>
       </c>
       <c r="J8">
-        <v>0.09335479047554045</v>
+        <v>0.384492911098726</v>
       </c>
       <c r="K8">
         <v>1</v>
       </c>
       <c r="L8">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M8">
-        <v>32.2587303494116</v>
+        <v>0.00545</v>
       </c>
       <c r="N8">
-        <v>32.2587303494116</v>
+        <v>0.01635</v>
       </c>
       <c r="O8">
-        <v>0.9942035944346669</v>
+        <v>0.0001383293565123925</v>
       </c>
       <c r="P8">
-        <v>0.9942035944346669</v>
+        <v>0.0001383293565123925</v>
       </c>
       <c r="Q8">
-        <v>2204.547643466442</v>
+        <v>1.706036833266667</v>
       </c>
       <c r="R8">
-        <v>2204.547643466442</v>
+        <v>15.3543314994</v>
       </c>
       <c r="S8">
-        <v>0.09281366824847752</v>
+        <v>5.318665697586333E-05</v>
       </c>
       <c r="T8">
-        <v>0.09281366824847752</v>
+        <v>5.318665697586331E-05</v>
       </c>
     </row>
     <row r="9" spans="1:20">
       <c r="A9" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B9" t="s">
         <v>26</v>
@@ -968,122 +968,122 @@
         <v>27</v>
       </c>
       <c r="D9" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>68.3395663619679</v>
+        <v>313.0342813333334</v>
       </c>
       <c r="H9">
-        <v>68.3395663619679</v>
+        <v>939.102844</v>
       </c>
       <c r="I9">
-        <v>0.09335479047554045</v>
+        <v>0.3844929110987261</v>
       </c>
       <c r="J9">
-        <v>0.09335479047554045</v>
+        <v>0.384492911098726</v>
       </c>
       <c r="K9">
         <v>1</v>
       </c>
       <c r="L9">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M9">
-        <v>0.188074842189879</v>
+        <v>0.028296</v>
       </c>
       <c r="N9">
-        <v>0.188074842189879</v>
+        <v>0.08488800000000001</v>
       </c>
       <c r="O9">
-        <v>0.005796405565333139</v>
+        <v>0.0007181958663990202</v>
       </c>
       <c r="P9">
-        <v>0.005796405565333139</v>
+        <v>0.0007181958663990201</v>
       </c>
       <c r="Q9">
-        <v>12.85295315885188</v>
+        <v>8.857618024608001</v>
       </c>
       <c r="R9">
-        <v>12.85295315885188</v>
+        <v>79.718562221472</v>
       </c>
       <c r="S9">
-        <v>0.0005411222270629317</v>
+        <v>0.000276141219410831</v>
       </c>
       <c r="T9">
-        <v>0.0005411222270629317</v>
+        <v>0.0002761412194108309</v>
       </c>
     </row>
     <row r="10" spans="1:20">
       <c r="A10" t="s">
+        <v>21</v>
+      </c>
+      <c r="B10" t="s">
+        <v>26</v>
+      </c>
+      <c r="C10" t="s">
+        <v>27</v>
+      </c>
+      <c r="D10" t="s">
         <v>24</v>
       </c>
-      <c r="B10" t="s">
-        <v>26</v>
-      </c>
-      <c r="C10" t="s">
-        <v>27</v>
-      </c>
-      <c r="D10" t="s">
-        <v>20</v>
-      </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>133.252666496393</v>
+        <v>313.0342813333334</v>
       </c>
       <c r="H10">
-        <v>133.252666496393</v>
+        <v>939.102844</v>
       </c>
       <c r="I10">
-        <v>0.1820288805344363</v>
+        <v>0.3844929110987261</v>
       </c>
       <c r="J10">
-        <v>0.1820288805344363</v>
+        <v>0.384492911098726</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L10">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M10">
-        <v>32.2587303494116</v>
+        <v>0.07360899999999999</v>
       </c>
       <c r="N10">
-        <v>32.2587303494116</v>
+        <v>0.220827</v>
       </c>
       <c r="O10">
-        <v>0.9942035944346669</v>
+        <v>0.00186830928504967</v>
       </c>
       <c r="P10">
-        <v>0.9942035944346669</v>
+        <v>0.00186830928504967</v>
       </c>
       <c r="Q10">
-        <v>4298.561836847215</v>
+        <v>23.04214041466533</v>
       </c>
       <c r="R10">
-        <v>4298.561836847215</v>
+        <v>207.379263731988</v>
       </c>
       <c r="S10">
-        <v>0.1809737673182552</v>
+        <v>0.0007183516758415274</v>
       </c>
       <c r="T10">
-        <v>0.1809737673182552</v>
+        <v>0.0007183516758415272</v>
       </c>
     </row>
     <row r="11" spans="1:20">
       <c r="A11" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="B11" t="s">
         <v>26</v>
@@ -1095,57 +1095,57 @@
         <v>25</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>133.252666496393</v>
+        <v>313.0342813333334</v>
       </c>
       <c r="H11">
-        <v>133.252666496393</v>
+        <v>939.102844</v>
       </c>
       <c r="I11">
-        <v>0.1820288805344363</v>
+        <v>0.3844929110987261</v>
       </c>
       <c r="J11">
-        <v>0.1820288805344363</v>
+        <v>0.384492911098726</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>0.188074842189879</v>
+        <v>0.2878673333333333</v>
       </c>
       <c r="N11">
-        <v>0.188074842189879</v>
+        <v>0.863602</v>
       </c>
       <c r="O11">
-        <v>0.005796405565333139</v>
+        <v>0.007306514308429066</v>
       </c>
       <c r="P11">
-        <v>0.005796405565333139</v>
+        <v>0.007306514308429065</v>
       </c>
       <c r="Q11">
-        <v>25.06147422268969</v>
+        <v>90.11234380934312</v>
       </c>
       <c r="R11">
-        <v>25.06147422268969</v>
+        <v>811.011094284088</v>
       </c>
       <c r="S11">
-        <v>0.001055113216181168</v>
+        <v>0.002809302956432387</v>
       </c>
       <c r="T11">
-        <v>0.001055113216181168</v>
+        <v>0.002809302956432386</v>
       </c>
     </row>
     <row r="12" spans="1:20">
       <c r="A12" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="B12" t="s">
         <v>26</v>
@@ -1157,114 +1157,1230 @@
         <v>20</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>86.975471461222</v>
+        <v>146.5374533333333</v>
       </c>
       <c r="H12">
-        <v>86.975471461222</v>
+        <v>439.61236</v>
       </c>
       <c r="I12">
-        <v>0.1188122393368362</v>
+        <v>0.1799886318429477</v>
       </c>
       <c r="J12">
-        <v>0.1188122393368362</v>
+        <v>0.1799886318429477</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>32.2587303494116</v>
+        <v>39.00350066666667</v>
       </c>
       <c r="N12">
-        <v>32.2587303494116</v>
+        <v>117.010502</v>
       </c>
       <c r="O12">
-        <v>0.9942035944346669</v>
+        <v>0.98996865118361</v>
       </c>
       <c r="P12">
-        <v>0.9942035944346669</v>
+        <v>0.9899686511836098</v>
       </c>
       <c r="Q12">
-        <v>2805.718280880505</v>
+        <v>5715.473658778303</v>
       </c>
       <c r="R12">
-        <v>2805.718280880505</v>
+        <v>51439.26292900473</v>
       </c>
       <c r="S12">
-        <v>0.1181235554115144</v>
+        <v>0.1781831030939463</v>
       </c>
       <c r="T12">
-        <v>0.1181235554115144</v>
+        <v>0.1781831030939462</v>
       </c>
     </row>
     <row r="13" spans="1:20">
       <c r="A13" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13" t="s">
+        <v>26</v>
+      </c>
+      <c r="C13" t="s">
+        <v>27</v>
+      </c>
+      <c r="D13" t="s">
+        <v>21</v>
+      </c>
+      <c r="E13">
+        <v>3</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13">
+        <v>146.5374533333333</v>
+      </c>
+      <c r="H13">
+        <v>439.61236</v>
+      </c>
+      <c r="I13">
+        <v>0.1799886318429477</v>
+      </c>
+      <c r="J13">
+        <v>0.1799886318429477</v>
+      </c>
+      <c r="K13">
+        <v>1</v>
+      </c>
+      <c r="L13">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M13">
+        <v>0.00545</v>
+      </c>
+      <c r="N13">
+        <v>0.01635</v>
+      </c>
+      <c r="O13">
+        <v>0.0001383293565123925</v>
+      </c>
+      <c r="P13">
+        <v>0.0001383293565123925</v>
+      </c>
+      <c r="Q13">
+        <v>0.7986291206666667</v>
+      </c>
+      <c r="R13">
+        <v>7.187662086</v>
+      </c>
+      <c r="S13">
+        <v>2.489771162238088E-05</v>
+      </c>
+      <c r="T13">
+        <v>2.489771162238088E-05</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" t="s">
+        <v>22</v>
+      </c>
+      <c r="B14" t="s">
+        <v>26</v>
+      </c>
+      <c r="C14" t="s">
+        <v>27</v>
+      </c>
+      <c r="D14" t="s">
+        <v>22</v>
+      </c>
+      <c r="E14">
+        <v>3</v>
+      </c>
+      <c r="F14">
+        <v>1</v>
+      </c>
+      <c r="G14">
+        <v>146.5374533333333</v>
+      </c>
+      <c r="H14">
+        <v>439.61236</v>
+      </c>
+      <c r="I14">
+        <v>0.1799886318429477</v>
+      </c>
+      <c r="J14">
+        <v>0.1799886318429477</v>
+      </c>
+      <c r="K14">
+        <v>1</v>
+      </c>
+      <c r="L14">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M14">
+        <v>0.028296</v>
+      </c>
+      <c r="N14">
+        <v>0.08488800000000001</v>
+      </c>
+      <c r="O14">
+        <v>0.0007181958663990202</v>
+      </c>
+      <c r="P14">
+        <v>0.0007181958663990201</v>
+      </c>
+      <c r="Q14">
+        <v>4.14642377952</v>
+      </c>
+      <c r="R14">
+        <v>37.31781401568001</v>
+      </c>
+      <c r="S14">
+        <v>0.0001292670913884201</v>
+      </c>
+      <c r="T14">
+        <v>0.0001292670913884201</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" t="s">
+        <v>22</v>
+      </c>
+      <c r="B15" t="s">
+        <v>26</v>
+      </c>
+      <c r="C15" t="s">
+        <v>27</v>
+      </c>
+      <c r="D15" t="s">
+        <v>24</v>
+      </c>
+      <c r="E15">
+        <v>3</v>
+      </c>
+      <c r="F15">
+        <v>1</v>
+      </c>
+      <c r="G15">
+        <v>146.5374533333333</v>
+      </c>
+      <c r="H15">
+        <v>439.61236</v>
+      </c>
+      <c r="I15">
+        <v>0.1799886318429477</v>
+      </c>
+      <c r="J15">
+        <v>0.1799886318429477</v>
+      </c>
+      <c r="K15">
+        <v>2</v>
+      </c>
+      <c r="L15">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M15">
+        <v>0.07360899999999999</v>
+      </c>
+      <c r="N15">
+        <v>0.220827</v>
+      </c>
+      <c r="O15">
+        <v>0.00186830928504967</v>
+      </c>
+      <c r="P15">
+        <v>0.00186830928504967</v>
+      </c>
+      <c r="Q15">
+        <v>10.78647540241333</v>
+      </c>
+      <c r="R15">
+        <v>97.07827862172</v>
+      </c>
+      <c r="S15">
+        <v>0.0003362744320755659</v>
+      </c>
+      <c r="T15">
+        <v>0.0003362744320755659</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" t="s">
+        <v>22</v>
+      </c>
+      <c r="B16" t="s">
+        <v>26</v>
+      </c>
+      <c r="C16" t="s">
+        <v>27</v>
+      </c>
+      <c r="D16" t="s">
         <v>25</v>
       </c>
-      <c r="B13" t="s">
-        <v>26</v>
-      </c>
-      <c r="C13" t="s">
-        <v>27</v>
-      </c>
-      <c r="D13" t="s">
+      <c r="E16">
+        <v>3</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+      <c r="G16">
+        <v>146.5374533333333</v>
+      </c>
+      <c r="H16">
+        <v>439.61236</v>
+      </c>
+      <c r="I16">
+        <v>0.1799886318429477</v>
+      </c>
+      <c r="J16">
+        <v>0.1799886318429477</v>
+      </c>
+      <c r="K16">
+        <v>3</v>
+      </c>
+      <c r="L16">
+        <v>1</v>
+      </c>
+      <c r="M16">
+        <v>0.2878673333333333</v>
+      </c>
+      <c r="N16">
+        <v>0.863602</v>
+      </c>
+      <c r="O16">
+        <v>0.007306514308429066</v>
+      </c>
+      <c r="P16">
+        <v>0.007306514308429065</v>
+      </c>
+      <c r="Q16">
+        <v>42.18334592452444</v>
+      </c>
+      <c r="R16">
+        <v>379.65011332072</v>
+      </c>
+      <c r="S16">
+        <v>0.001315089513915069</v>
+      </c>
+      <c r="T16">
+        <v>0.001315089513915069</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" t="s">
+        <v>26</v>
+      </c>
+      <c r="C17" t="s">
+        <v>27</v>
+      </c>
+      <c r="D17" t="s">
+        <v>20</v>
+      </c>
+      <c r="E17">
+        <v>3</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="G17">
+        <v>69.20791633333333</v>
+      </c>
+      <c r="H17">
+        <v>207.623749</v>
+      </c>
+      <c r="I17">
+        <v>0.08500651464989196</v>
+      </c>
+      <c r="J17">
+        <v>0.08500651464989196</v>
+      </c>
+      <c r="K17">
+        <v>3</v>
+      </c>
+      <c r="L17">
+        <v>1</v>
+      </c>
+      <c r="M17">
+        <v>39.00350066666667</v>
+      </c>
+      <c r="N17">
+        <v>117.010502</v>
+      </c>
+      <c r="O17">
+        <v>0.98996865118361</v>
+      </c>
+      <c r="P17">
+        <v>0.9899686511836098</v>
+      </c>
+      <c r="Q17">
+        <v>2699.351010845778</v>
+      </c>
+      <c r="R17">
+        <v>24294.159097612</v>
+      </c>
+      <c r="S17">
+        <v>0.08415378464977333</v>
+      </c>
+      <c r="T17">
+        <v>0.08415378464977331</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
+      <c r="A18" t="s">
+        <v>23</v>
+      </c>
+      <c r="B18" t="s">
+        <v>26</v>
+      </c>
+      <c r="C18" t="s">
+        <v>27</v>
+      </c>
+      <c r="D18" t="s">
+        <v>21</v>
+      </c>
+      <c r="E18">
+        <v>3</v>
+      </c>
+      <c r="F18">
+        <v>1</v>
+      </c>
+      <c r="G18">
+        <v>69.20791633333333</v>
+      </c>
+      <c r="H18">
+        <v>207.623749</v>
+      </c>
+      <c r="I18">
+        <v>0.08500651464989196</v>
+      </c>
+      <c r="J18">
+        <v>0.08500651464989196</v>
+      </c>
+      <c r="K18">
+        <v>1</v>
+      </c>
+      <c r="L18">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M18">
+        <v>0.00545</v>
+      </c>
+      <c r="N18">
+        <v>0.01635</v>
+      </c>
+      <c r="O18">
+        <v>0.0001383293565123925</v>
+      </c>
+      <c r="P18">
+        <v>0.0001383293565123925</v>
+      </c>
+      <c r="Q18">
+        <v>0.3771831440166666</v>
+      </c>
+      <c r="R18">
+        <v>3.39464829615</v>
+      </c>
+      <c r="S18">
+        <v>1.175889647088083E-05</v>
+      </c>
+      <c r="T18">
+        <v>1.175889647088082E-05</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
+      <c r="A19" t="s">
+        <v>23</v>
+      </c>
+      <c r="B19" t="s">
+        <v>26</v>
+      </c>
+      <c r="C19" t="s">
+        <v>27</v>
+      </c>
+      <c r="D19" t="s">
+        <v>22</v>
+      </c>
+      <c r="E19">
+        <v>3</v>
+      </c>
+      <c r="F19">
+        <v>1</v>
+      </c>
+      <c r="G19">
+        <v>69.20791633333333</v>
+      </c>
+      <c r="H19">
+        <v>207.623749</v>
+      </c>
+      <c r="I19">
+        <v>0.08500651464989196</v>
+      </c>
+      <c r="J19">
+        <v>0.08500651464989196</v>
+      </c>
+      <c r="K19">
+        <v>1</v>
+      </c>
+      <c r="L19">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M19">
+        <v>0.028296</v>
+      </c>
+      <c r="N19">
+        <v>0.08488800000000001</v>
+      </c>
+      <c r="O19">
+        <v>0.0007181958663990202</v>
+      </c>
+      <c r="P19">
+        <v>0.0007181958663990201</v>
+      </c>
+      <c r="Q19">
+        <v>1.958307200568</v>
+      </c>
+      <c r="R19">
+        <v>17.624764805112</v>
+      </c>
+      <c r="S19">
+        <v>6.105132743854016E-05</v>
+      </c>
+      <c r="T19">
+        <v>6.105132743854014E-05</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
+      <c r="A20" t="s">
+        <v>23</v>
+      </c>
+      <c r="B20" t="s">
+        <v>26</v>
+      </c>
+      <c r="C20" t="s">
+        <v>27</v>
+      </c>
+      <c r="D20" t="s">
+        <v>24</v>
+      </c>
+      <c r="E20">
+        <v>3</v>
+      </c>
+      <c r="F20">
+        <v>1</v>
+      </c>
+      <c r="G20">
+        <v>69.20791633333333</v>
+      </c>
+      <c r="H20">
+        <v>207.623749</v>
+      </c>
+      <c r="I20">
+        <v>0.08500651464989196</v>
+      </c>
+      <c r="J20">
+        <v>0.08500651464989196</v>
+      </c>
+      <c r="K20">
+        <v>2</v>
+      </c>
+      <c r="L20">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M20">
+        <v>0.07360899999999999</v>
+      </c>
+      <c r="N20">
+        <v>0.220827</v>
+      </c>
+      <c r="O20">
+        <v>0.00186830928504967</v>
+      </c>
+      <c r="P20">
+        <v>0.00186830928504967</v>
+      </c>
+      <c r="Q20">
+        <v>5.094325513380332</v>
+      </c>
+      <c r="R20">
+        <v>45.848929620423</v>
+      </c>
+      <c r="S20">
+        <v>0.000158818460610104</v>
+      </c>
+      <c r="T20">
+        <v>0.000158818460610104</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
+      <c r="A21" t="s">
+        <v>23</v>
+      </c>
+      <c r="B21" t="s">
+        <v>26</v>
+      </c>
+      <c r="C21" t="s">
+        <v>27</v>
+      </c>
+      <c r="D21" t="s">
         <v>25</v>
       </c>
-      <c r="E13">
-        <v>1</v>
-      </c>
-      <c r="F13">
-        <v>1</v>
-      </c>
-      <c r="G13">
-        <v>86.975471461222</v>
-      </c>
-      <c r="H13">
-        <v>86.975471461222</v>
-      </c>
-      <c r="I13">
-        <v>0.1188122393368362</v>
-      </c>
-      <c r="J13">
-        <v>0.1188122393368362</v>
-      </c>
-      <c r="K13">
-        <v>1</v>
-      </c>
-      <c r="L13">
-        <v>1</v>
-      </c>
-      <c r="M13">
-        <v>0.188074842189879</v>
-      </c>
-      <c r="N13">
-        <v>0.188074842189879</v>
-      </c>
-      <c r="O13">
-        <v>0.005796405565333139</v>
-      </c>
-      <c r="P13">
-        <v>0.005796405565333139</v>
-      </c>
-      <c r="Q13">
-        <v>16.35789806945965</v>
-      </c>
-      <c r="R13">
-        <v>16.35789806945965</v>
-      </c>
-      <c r="S13">
-        <v>0.0006886839253217301</v>
-      </c>
-      <c r="T13">
-        <v>0.0006886839253217301</v>
+      <c r="E21">
+        <v>3</v>
+      </c>
+      <c r="F21">
+        <v>1</v>
+      </c>
+      <c r="G21">
+        <v>69.20791633333333</v>
+      </c>
+      <c r="H21">
+        <v>207.623749</v>
+      </c>
+      <c r="I21">
+        <v>0.08500651464989196</v>
+      </c>
+      <c r="J21">
+        <v>0.08500651464989196</v>
+      </c>
+      <c r="K21">
+        <v>3</v>
+      </c>
+      <c r="L21">
+        <v>1</v>
+      </c>
+      <c r="M21">
+        <v>0.2878673333333333</v>
+      </c>
+      <c r="N21">
+        <v>0.863602</v>
+      </c>
+      <c r="O21">
+        <v>0.007306514308429066</v>
+      </c>
+      <c r="P21">
+        <v>0.007306514308429065</v>
+      </c>
+      <c r="Q21">
+        <v>19.92269832043311</v>
+      </c>
+      <c r="R21">
+        <v>179.304284883898</v>
+      </c>
+      <c r="S21">
+        <v>0.0006211013155991207</v>
+      </c>
+      <c r="T21">
+        <v>0.0006211013155991206</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
+      <c r="A22" t="s">
+        <v>24</v>
+      </c>
+      <c r="B22" t="s">
+        <v>26</v>
+      </c>
+      <c r="C22" t="s">
+        <v>27</v>
+      </c>
+      <c r="D22" t="s">
+        <v>20</v>
+      </c>
+      <c r="E22">
+        <v>3</v>
+      </c>
+      <c r="F22">
+        <v>1</v>
+      </c>
+      <c r="G22">
+        <v>138.0495273333333</v>
+      </c>
+      <c r="H22">
+        <v>414.148582</v>
+      </c>
+      <c r="I22">
+        <v>0.1695631047631983</v>
+      </c>
+      <c r="J22">
+        <v>0.1695631047631983</v>
+      </c>
+      <c r="K22">
+        <v>3</v>
+      </c>
+      <c r="L22">
+        <v>1</v>
+      </c>
+      <c r="M22">
+        <v>39.00350066666667</v>
+      </c>
+      <c r="N22">
+        <v>117.010502</v>
+      </c>
+      <c r="O22">
+        <v>0.98996865118361</v>
+      </c>
+      <c r="P22">
+        <v>0.9899686511836098</v>
+      </c>
+      <c r="Q22">
+        <v>5384.414831378685</v>
+      </c>
+      <c r="R22">
+        <v>48459.73348240817</v>
+      </c>
+      <c r="S22">
+        <v>0.1678621581129286</v>
+      </c>
+      <c r="T22">
+        <v>0.1678621581129285</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
+      <c r="A23" t="s">
+        <v>24</v>
+      </c>
+      <c r="B23" t="s">
+        <v>26</v>
+      </c>
+      <c r="C23" t="s">
+        <v>27</v>
+      </c>
+      <c r="D23" t="s">
+        <v>21</v>
+      </c>
+      <c r="E23">
+        <v>3</v>
+      </c>
+      <c r="F23">
+        <v>1</v>
+      </c>
+      <c r="G23">
+        <v>138.0495273333333</v>
+      </c>
+      <c r="H23">
+        <v>414.148582</v>
+      </c>
+      <c r="I23">
+        <v>0.1695631047631983</v>
+      </c>
+      <c r="J23">
+        <v>0.1695631047631983</v>
+      </c>
+      <c r="K23">
+        <v>1</v>
+      </c>
+      <c r="L23">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M23">
+        <v>0.00545</v>
+      </c>
+      <c r="N23">
+        <v>0.01635</v>
+      </c>
+      <c r="O23">
+        <v>0.0001383293565123925</v>
+      </c>
+      <c r="P23">
+        <v>0.0001383293565123925</v>
+      </c>
+      <c r="Q23">
+        <v>0.7523699239666667</v>
+      </c>
+      <c r="R23">
+        <v>6.771329315700001</v>
+      </c>
+      <c r="S23">
+        <v>2.345555517013663E-05</v>
+      </c>
+      <c r="T23">
+        <v>2.345555517013662E-05</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
+      <c r="A24" t="s">
+        <v>24</v>
+      </c>
+      <c r="B24" t="s">
+        <v>26</v>
+      </c>
+      <c r="C24" t="s">
+        <v>27</v>
+      </c>
+      <c r="D24" t="s">
+        <v>22</v>
+      </c>
+      <c r="E24">
+        <v>3</v>
+      </c>
+      <c r="F24">
+        <v>1</v>
+      </c>
+      <c r="G24">
+        <v>138.0495273333333</v>
+      </c>
+      <c r="H24">
+        <v>414.148582</v>
+      </c>
+      <c r="I24">
+        <v>0.1695631047631983</v>
+      </c>
+      <c r="J24">
+        <v>0.1695631047631983</v>
+      </c>
+      <c r="K24">
+        <v>1</v>
+      </c>
+      <c r="L24">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M24">
+        <v>0.028296</v>
+      </c>
+      <c r="N24">
+        <v>0.08488800000000001</v>
+      </c>
+      <c r="O24">
+        <v>0.0007181958663990202</v>
+      </c>
+      <c r="P24">
+        <v>0.0007181958663990201</v>
+      </c>
+      <c r="Q24">
+        <v>3.906249425424</v>
+      </c>
+      <c r="R24">
+        <v>35.15624482881601</v>
+      </c>
+      <c r="S24">
+        <v>0.000121779520934713</v>
+      </c>
+      <c r="T24">
+        <v>0.000121779520934713</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
+      <c r="A25" t="s">
+        <v>24</v>
+      </c>
+      <c r="B25" t="s">
+        <v>26</v>
+      </c>
+      <c r="C25" t="s">
+        <v>27</v>
+      </c>
+      <c r="D25" t="s">
+        <v>24</v>
+      </c>
+      <c r="E25">
+        <v>3</v>
+      </c>
+      <c r="F25">
+        <v>1</v>
+      </c>
+      <c r="G25">
+        <v>138.0495273333333</v>
+      </c>
+      <c r="H25">
+        <v>414.148582</v>
+      </c>
+      <c r="I25">
+        <v>0.1695631047631983</v>
+      </c>
+      <c r="J25">
+        <v>0.1695631047631983</v>
+      </c>
+      <c r="K25">
+        <v>2</v>
+      </c>
+      <c r="L25">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M25">
+        <v>0.07360899999999999</v>
+      </c>
+      <c r="N25">
+        <v>0.220827</v>
+      </c>
+      <c r="O25">
+        <v>0.00186830928504967</v>
+      </c>
+      <c r="P25">
+        <v>0.00186830928504967</v>
+      </c>
+      <c r="Q25">
+        <v>10.16168765747933</v>
+      </c>
+      <c r="R25">
+        <v>91.455188917314</v>
+      </c>
+      <c r="S25">
+        <v>0.0003167963230309334</v>
+      </c>
+      <c r="T25">
+        <v>0.0003167963230309333</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20">
+      <c r="A26" t="s">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>26</v>
+      </c>
+      <c r="C26" t="s">
+        <v>27</v>
+      </c>
+      <c r="D26" t="s">
+        <v>25</v>
+      </c>
+      <c r="E26">
+        <v>3</v>
+      </c>
+      <c r="F26">
+        <v>1</v>
+      </c>
+      <c r="G26">
+        <v>138.0495273333333</v>
+      </c>
+      <c r="H26">
+        <v>414.148582</v>
+      </c>
+      <c r="I26">
+        <v>0.1695631047631983</v>
+      </c>
+      <c r="J26">
+        <v>0.1695631047631983</v>
+      </c>
+      <c r="K26">
+        <v>3</v>
+      </c>
+      <c r="L26">
+        <v>1</v>
+      </c>
+      <c r="M26">
+        <v>0.2878673333333333</v>
+      </c>
+      <c r="N26">
+        <v>0.863602</v>
+      </c>
+      <c r="O26">
+        <v>0.007306514308429066</v>
+      </c>
+      <c r="P26">
+        <v>0.007306514308429065</v>
+      </c>
+      <c r="Q26">
+        <v>39.73994930137378</v>
+      </c>
+      <c r="R26">
+        <v>357.659543712364</v>
+      </c>
+      <c r="S26">
+        <v>0.001238915251133965</v>
+      </c>
+      <c r="T26">
+        <v>0.001238915251133965</v>
+      </c>
+    </row>
+    <row r="27" spans="1:20">
+      <c r="A27" t="s">
+        <v>25</v>
+      </c>
+      <c r="B27" t="s">
+        <v>26</v>
+      </c>
+      <c r="C27" t="s">
+        <v>27</v>
+      </c>
+      <c r="D27" t="s">
+        <v>20</v>
+      </c>
+      <c r="E27">
+        <v>3</v>
+      </c>
+      <c r="F27">
+        <v>1</v>
+      </c>
+      <c r="G27">
+        <v>90.92445633333334</v>
+      </c>
+      <c r="H27">
+        <v>272.773369</v>
+      </c>
+      <c r="I27">
+        <v>0.1116804484057307</v>
+      </c>
+      <c r="J27">
+        <v>0.1116804484057307</v>
+      </c>
+      <c r="K27">
+        <v>3</v>
+      </c>
+      <c r="L27">
+        <v>1</v>
+      </c>
+      <c r="M27">
+        <v>39.00350066666667</v>
+      </c>
+      <c r="N27">
+        <v>117.010502</v>
+      </c>
+      <c r="O27">
+        <v>0.98996865118361</v>
+      </c>
+      <c r="P27">
+        <v>0.9899686511836098</v>
+      </c>
+      <c r="Q27">
+        <v>3546.372093213471</v>
+      </c>
+      <c r="R27">
+        <v>31917.34883892124</v>
+      </c>
+      <c r="S27">
+        <v>0.110560142871802</v>
+      </c>
+      <c r="T27">
+        <v>0.110560142871802</v>
+      </c>
+    </row>
+    <row r="28" spans="1:20">
+      <c r="A28" t="s">
+        <v>25</v>
+      </c>
+      <c r="B28" t="s">
+        <v>26</v>
+      </c>
+      <c r="C28" t="s">
+        <v>27</v>
+      </c>
+      <c r="D28" t="s">
+        <v>21</v>
+      </c>
+      <c r="E28">
+        <v>3</v>
+      </c>
+      <c r="F28">
+        <v>1</v>
+      </c>
+      <c r="G28">
+        <v>90.92445633333334</v>
+      </c>
+      <c r="H28">
+        <v>272.773369</v>
+      </c>
+      <c r="I28">
+        <v>0.1116804484057307</v>
+      </c>
+      <c r="J28">
+        <v>0.1116804484057307</v>
+      </c>
+      <c r="K28">
+        <v>1</v>
+      </c>
+      <c r="L28">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M28">
+        <v>0.00545</v>
+      </c>
+      <c r="N28">
+        <v>0.01635</v>
+      </c>
+      <c r="O28">
+        <v>0.0001383293565123925</v>
+      </c>
+      <c r="P28">
+        <v>0.0001383293565123925</v>
+      </c>
+      <c r="Q28">
+        <v>0.4955382870166667</v>
+      </c>
+      <c r="R28">
+        <v>4.45984458315</v>
+      </c>
+      <c r="S28">
+        <v>1.544868456298019E-05</v>
+      </c>
+      <c r="T28">
+        <v>1.544868456298018E-05</v>
+      </c>
+    </row>
+    <row r="29" spans="1:20">
+      <c r="A29" t="s">
+        <v>25</v>
+      </c>
+      <c r="B29" t="s">
+        <v>26</v>
+      </c>
+      <c r="C29" t="s">
+        <v>27</v>
+      </c>
+      <c r="D29" t="s">
+        <v>22</v>
+      </c>
+      <c r="E29">
+        <v>3</v>
+      </c>
+      <c r="F29">
+        <v>1</v>
+      </c>
+      <c r="G29">
+        <v>90.92445633333334</v>
+      </c>
+      <c r="H29">
+        <v>272.773369</v>
+      </c>
+      <c r="I29">
+        <v>0.1116804484057307</v>
+      </c>
+      <c r="J29">
+        <v>0.1116804484057307</v>
+      </c>
+      <c r="K29">
+        <v>1</v>
+      </c>
+      <c r="L29">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M29">
+        <v>0.028296</v>
+      </c>
+      <c r="N29">
+        <v>0.08488800000000001</v>
+      </c>
+      <c r="O29">
+        <v>0.0007181958663990202</v>
+      </c>
+      <c r="P29">
+        <v>0.0007181958663990201</v>
+      </c>
+      <c r="Q29">
+        <v>2.572798416408</v>
+      </c>
+      <c r="R29">
+        <v>23.155185747672</v>
+      </c>
+      <c r="S29">
+        <v>8.020843640258486E-05</v>
+      </c>
+      <c r="T29">
+        <v>8.020843640258483E-05</v>
+      </c>
+    </row>
+    <row r="30" spans="1:20">
+      <c r="A30" t="s">
+        <v>25</v>
+      </c>
+      <c r="B30" t="s">
+        <v>26</v>
+      </c>
+      <c r="C30" t="s">
+        <v>27</v>
+      </c>
+      <c r="D30" t="s">
+        <v>24</v>
+      </c>
+      <c r="E30">
+        <v>3</v>
+      </c>
+      <c r="F30">
+        <v>1</v>
+      </c>
+      <c r="G30">
+        <v>90.92445633333334</v>
+      </c>
+      <c r="H30">
+        <v>272.773369</v>
+      </c>
+      <c r="I30">
+        <v>0.1116804484057307</v>
+      </c>
+      <c r="J30">
+        <v>0.1116804484057307</v>
+      </c>
+      <c r="K30">
+        <v>2</v>
+      </c>
+      <c r="L30">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M30">
+        <v>0.07360899999999999</v>
+      </c>
+      <c r="N30">
+        <v>0.220827</v>
+      </c>
+      <c r="O30">
+        <v>0.00186830928504967</v>
+      </c>
+      <c r="P30">
+        <v>0.00186830928504967</v>
+      </c>
+      <c r="Q30">
+        <v>6.692858306240333</v>
+      </c>
+      <c r="R30">
+        <v>60.235724756163</v>
+      </c>
+      <c r="S30">
+        <v>0.0002086536187149374</v>
+      </c>
+      <c r="T30">
+        <v>0.0002086536187149373</v>
+      </c>
+    </row>
+    <row r="31" spans="1:20">
+      <c r="A31" t="s">
+        <v>25</v>
+      </c>
+      <c r="B31" t="s">
+        <v>26</v>
+      </c>
+      <c r="C31" t="s">
+        <v>27</v>
+      </c>
+      <c r="D31" t="s">
+        <v>25</v>
+      </c>
+      <c r="E31">
+        <v>3</v>
+      </c>
+      <c r="F31">
+        <v>1</v>
+      </c>
+      <c r="G31">
+        <v>90.92445633333334</v>
+      </c>
+      <c r="H31">
+        <v>272.773369</v>
+      </c>
+      <c r="I31">
+        <v>0.1116804484057307</v>
+      </c>
+      <c r="J31">
+        <v>0.1116804484057307</v>
+      </c>
+      <c r="K31">
+        <v>3</v>
+      </c>
+      <c r="L31">
+        <v>1</v>
+      </c>
+      <c r="M31">
+        <v>0.2878673333333333</v>
+      </c>
+      <c r="N31">
+        <v>0.863602</v>
+      </c>
+      <c r="O31">
+        <v>0.007306514308429066</v>
+      </c>
+      <c r="P31">
+        <v>0.007306514308429065</v>
+      </c>
+      <c r="Q31">
+        <v>26.17418077945978</v>
+      </c>
+      <c r="R31">
+        <v>235.567627015138</v>
+      </c>
+      <c r="S31">
+        <v>0.0008159947942482457</v>
+      </c>
+      <c r="T31">
+        <v>0.0008159947942482454</v>
       </c>
     </row>
   </sheetData>
